--- a/docs/формат xlsx.xlsx
+++ b/docs/формат xlsx.xlsx
@@ -20,11 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t xml:space="preserve">Образовательная программа</t>
   </si>
   <si>
+    <t xml:space="preserve">Идентификатор</t>
+  </si>
+  <si>
     <t xml:space="preserve">Название образовательной программы</t>
   </si>
   <si>
@@ -47,36 +50,62 @@
   </si>
   <si>
     <t xml:space="preserve">Форма обучения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дисциплины</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Название дисциплины</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Номер семестра</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
       </rPr>
-      <t xml:space="preserve">Студенты</t>
+      <t xml:space="preserve">Идентификатор о</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">бразовательной программы</t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Дисциплины</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Идентификатор</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> учебного плана</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Название дисциплины</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Номер семестра</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Студенты </t>
+  </si>
+  <si>
     <t xml:space="preserve">Фамилия</t>
   </si>
   <si>
@@ -101,7 +130,23 @@
     <t xml:space="preserve">Движение контингента (зачисление, отчисление, академический отпуск и пр.)</t>
   </si>
   <si>
-    <t xml:space="preserve">Студенты </t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Идентификатор с</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">тудента</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Событие</t>
@@ -126,11 +171,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -176,10 +222,15 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -190,7 +241,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -205,27 +256,6 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -261,6 +291,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -269,28 +303,24 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -310,183 +340,211 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="30.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.69"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="9" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="20.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="30.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G6" s="4" t="s">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
+      <c r="A9" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="D15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="G15" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A14:H14"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
